--- a/storage/file/pertanyaann.xlsx
+++ b/storage/file/pertanyaann.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="pertanyaan_sd" sheetId="1" r:id="rId1"/>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8">
         <v>1</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="8">
         <v>1</v>
@@ -1615,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="8">
         <v>1</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="8">
         <v>1</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="8">
         <v>1</v>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="8">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="8">
         <v>1</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="8">
         <v>1</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="8">
         <v>2</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="8">
         <v>2</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="8">
         <v>2</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="8">
         <v>2</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="8">
         <v>2</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="8">
         <v>2</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="8">
         <v>2</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="8">
         <v>2</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="8">
         <v>2</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="8">
         <v>2</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="8">
         <v>2</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="8">
         <v>2</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="8">
         <v>2</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="8">
         <v>2</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="8">
         <v>2</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="8">
         <v>2</v>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="8">
         <v>2</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="8">
         <v>2</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="8">
         <v>2</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="8">
         <v>2</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="8">
         <v>2</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="8">
         <v>2</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="8">
         <v>2</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="8">
         <v>2</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="8">
         <v>2</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="8">
         <v>2</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="8">
         <v>2</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="8">
         <v>2</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="8">
         <v>2</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="8">
         <v>2</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="8">
         <v>2</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="8">
         <v>2</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="8">
         <v>2</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="8">
         <v>2</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="8">
         <v>2</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="8">
         <v>2</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="8">
         <v>2</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="8">
         <v>2</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="8">
         <v>2</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="8">
         <v>2</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="8">
         <v>2</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="8">
         <v>2</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="8">
         <v>2</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="8">
         <v>2</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="8">
         <v>2</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="8">
         <v>2</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="8">
         <v>2</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="8">
         <v>2</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="8">
         <v>2</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="8">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="8">
         <v>2</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="8">
         <v>2</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="8">
         <v>2</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="8">
         <v>2</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="8">
         <v>2</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="8">
         <v>2</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="8">
         <v>2</v>
